--- a/biology/Botanique/Ketmie_trilobée/Ketmie_trilobée.xlsx
+++ b/biology/Botanique/Ketmie_trilobée/Ketmie_trilobée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ketmie_trilob%C3%A9e</t>
+          <t>Ketmie_trilobée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Ketmie d'Afrique ou Fleur d'une heure[réf. nécessaire] (Hibiscus trionum), est une espèce de plantes herbacées annuelles (parfois bisannuelles) du genre Hibiscus, originaire de l'est du bassin méditerranéen, mais qui a été disséminée à travers le sud de l'Europe et l'Amérique comme plante de jardin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ketmie_trilob%C3%A9e</t>
+          <t>Ketmie_trilobée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est généralement d'une taille d'une cinquantaine de centimètres, mais atteint parfois les 80 cm. Elle a un port déprimé et la tige est ramifiée à partir de la base. Les feuilles sont simples, palmées et divisée en 3 à 7 lobes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est généralement d'une taille d'une cinquantaine de centimètres, mais atteint parfois les 80 cm. Elle a un port déprimé et la tige est ramifiée à partir de la base. Les feuilles sont simples, palmées et divisée en 3 à 7 lobes.
 Elle produit des fleurs, de 2 à 4 cm de diamètre, blanches ou légèrement jaunes avec un cœur violet foncé. Le calice est membraneux et gonflé. Celles-ci s'ouvrent de juin à septembre, mais seulement pour quelques heures, d'où son nom vernaculaire.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ketmie_trilob%C3%A9e</t>
+          <t>Ketmie_trilobée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hibiscus africanus Mill.
 Hibiscus hispidus Mill.
